--- a/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/ECON/OldImportLogic/ECON_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\ECON\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCC5879-9B58-43B3-8D6C-2DE3EA1541DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569F569-C43C-44F5-9F49-38B78727A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Disutility point estimates reported with health states</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Year / Country</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   <si>
     <t>Adult patients with hormone refractory metastatic prostate cancer previously treated with a docetaxel-containing regimen</t>
   </si>
+  <si>
+    <t>Study Identifier</t>
+  </si>
 </sst>
 </file>
 
@@ -271,18 +271,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -396,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -426,52 +419,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="19">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="19">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -781,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>13</v>
@@ -803,39 +782,39 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -844,39 +823,39 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -885,39 +864,39 @@
       <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -926,39 +905,39 @@
       <c r="B5">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -967,39 +946,39 @@
       <c r="B6">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1008,39 +987,39 @@
       <c r="B7">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1049,39 +1028,39 @@
       <c r="B8">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1090,39 +1069,39 @@
       <c r="B9">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1131,39 +1110,39 @@
       <c r="B10">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1177,15 +1156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1396,6 +1366,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1411,14 +1390,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1433,6 +1404,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
